--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3909.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3909.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.676169573015996</v>
+        <v>2.821390151977539</v>
       </c>
       <c r="B1">
-        <v>2.21523484119903</v>
+        <v>2.770732879638672</v>
       </c>
       <c r="C1">
-        <v>3.517107581337371</v>
+        <v>2.998645067214966</v>
       </c>
       <c r="D1">
-        <v>7.510296643505465</v>
+        <v>3.523798942565918</v>
       </c>
       <c r="E1">
-        <v>0.7149011753545075</v>
+        <v>3.204209327697754</v>
       </c>
     </row>
   </sheetData>
